--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H2">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.5073682970285</v>
+        <v>30.84053233333333</v>
       </c>
       <c r="N2">
-        <v>28.5073682970285</v>
+        <v>92.521597</v>
       </c>
       <c r="O2">
-        <v>0.2647631234375732</v>
+        <v>0.2792762306509579</v>
       </c>
       <c r="P2">
-        <v>0.2647631234375732</v>
+        <v>0.2792762306509579</v>
       </c>
       <c r="Q2">
-        <v>2072.335867163094</v>
+        <v>3050.52269724829</v>
       </c>
       <c r="R2">
-        <v>2072.335867163094</v>
+        <v>27454.70427523461</v>
       </c>
       <c r="S2">
-        <v>0.2014243629487644</v>
+        <v>0.2267953432466403</v>
       </c>
       <c r="T2">
-        <v>0.2014243629487644</v>
+        <v>0.2267953432466403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H3">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>69.19078714923791</v>
+        <v>69.52746833333333</v>
       </c>
       <c r="N3">
-        <v>69.19078714923791</v>
+        <v>208.582405</v>
       </c>
       <c r="O3">
-        <v>0.6426117180604864</v>
+        <v>0.6296055163046042</v>
       </c>
       <c r="P3">
-        <v>0.6426117180604864</v>
+        <v>0.6296055163046042</v>
       </c>
       <c r="Q3">
-        <v>5029.806623768883</v>
+        <v>6877.154970629562</v>
       </c>
       <c r="R3">
-        <v>5029.806623768883</v>
+        <v>61894.39473566606</v>
       </c>
       <c r="S3">
-        <v>0.4888809825672863</v>
+        <v>0.5112916299659714</v>
       </c>
       <c r="T3">
-        <v>0.4888809825672863</v>
+        <v>0.5112916299659714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H4">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.973063743554301</v>
+        <v>10.06220766666667</v>
       </c>
       <c r="N4">
-        <v>9.973063743554301</v>
+        <v>30.186623</v>
       </c>
       <c r="O4">
-        <v>0.09262515850194031</v>
+        <v>0.09111825304443795</v>
       </c>
       <c r="P4">
-        <v>0.09262515850194031</v>
+        <v>0.09111825304443795</v>
       </c>
       <c r="Q4">
-        <v>724.9893250730451</v>
+        <v>995.2809030606903</v>
       </c>
       <c r="R4">
-        <v>724.9893250730451</v>
+        <v>8957.528127546213</v>
       </c>
       <c r="S4">
-        <v>0.07046662428682468</v>
+        <v>0.07399553992503963</v>
       </c>
       <c r="T4">
-        <v>0.07046662428682468</v>
+        <v>0.07399553992503963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H5">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.5073682970285</v>
+        <v>30.84053233333333</v>
       </c>
       <c r="N5">
-        <v>28.5073682970285</v>
+        <v>92.521597</v>
       </c>
       <c r="O5">
-        <v>0.2647631234375732</v>
+        <v>0.2792762306509579</v>
       </c>
       <c r="P5">
-        <v>0.2647631234375732</v>
+        <v>0.2792762306509579</v>
       </c>
       <c r="Q5">
-        <v>485.2835336418199</v>
+        <v>525.788598590133</v>
       </c>
       <c r="R5">
-        <v>485.2835336418199</v>
+        <v>4732.097387311197</v>
       </c>
       <c r="S5">
-        <v>0.04716799441740109</v>
+        <v>0.03909048301787259</v>
       </c>
       <c r="T5">
-        <v>0.04716799441740109</v>
+        <v>0.03909048301787259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H6">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.19078714923791</v>
+        <v>69.52746833333333</v>
       </c>
       <c r="N6">
-        <v>69.19078714923791</v>
+        <v>208.582405</v>
       </c>
       <c r="O6">
-        <v>0.6426117180604864</v>
+        <v>0.6296055163046042</v>
       </c>
       <c r="P6">
-        <v>0.6426117180604864</v>
+        <v>0.6296055163046042</v>
       </c>
       <c r="Q6">
-        <v>1177.841087728226</v>
+        <v>1185.347572583616</v>
       </c>
       <c r="R6">
-        <v>1177.841087728226</v>
+        <v>10668.12815325254</v>
       </c>
       <c r="S6">
-        <v>0.1144823551576672</v>
+        <v>0.08812631023305319</v>
       </c>
       <c r="T6">
-        <v>0.1144823551576672</v>
+        <v>0.08812631023305319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H7">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.973063743554301</v>
+        <v>10.06220766666667</v>
       </c>
       <c r="N7">
-        <v>9.973063743554301</v>
+        <v>30.186623</v>
       </c>
       <c r="O7">
-        <v>0.09262515850194031</v>
+        <v>0.09111825304443795</v>
       </c>
       <c r="P7">
-        <v>0.09262515850194031</v>
+        <v>0.09111825304443795</v>
       </c>
       <c r="Q7">
-        <v>169.7723747867539</v>
+        <v>171.5467817026405</v>
       </c>
       <c r="R7">
-        <v>169.7723747867539</v>
+        <v>1543.921035323764</v>
       </c>
       <c r="S7">
-        <v>0.01650132730875014</v>
+        <v>0.01275388354730217</v>
       </c>
       <c r="T7">
-        <v>0.01650132730875014</v>
+        <v>0.01275388354730217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H8">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J8">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.5073682970285</v>
+        <v>30.84053233333333</v>
       </c>
       <c r="N8">
-        <v>28.5073682970285</v>
+        <v>92.521597</v>
       </c>
       <c r="O8">
-        <v>0.2647631234375732</v>
+        <v>0.2792762306509579</v>
       </c>
       <c r="P8">
-        <v>0.2647631234375732</v>
+        <v>0.2792762306509579</v>
       </c>
       <c r="Q8">
-        <v>166.3714261705587</v>
+        <v>180.1083387402787</v>
       </c>
       <c r="R8">
-        <v>166.3714261705587</v>
+        <v>1620.975048662508</v>
       </c>
       <c r="S8">
-        <v>0.01617076607140769</v>
+        <v>0.01339040438644504</v>
       </c>
       <c r="T8">
-        <v>0.01617076607140769</v>
+        <v>0.01339040438644504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H9">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J9">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>69.19078714923791</v>
+        <v>69.52746833333333</v>
       </c>
       <c r="N9">
-        <v>69.19078714923791</v>
+        <v>208.582405</v>
       </c>
       <c r="O9">
-        <v>0.6426117180604864</v>
+        <v>0.6296055163046042</v>
       </c>
       <c r="P9">
-        <v>0.6426117180604864</v>
+        <v>0.6296055163046042</v>
       </c>
       <c r="Q9">
-        <v>403.8033190556625</v>
+        <v>406.0395807370467</v>
       </c>
       <c r="R9">
-        <v>403.8033190556625</v>
+        <v>3654.35622663342</v>
       </c>
       <c r="S9">
-        <v>0.0392483803355329</v>
+        <v>0.0301875761055795</v>
       </c>
       <c r="T9">
-        <v>0.0392483803355329</v>
+        <v>0.0301875761055795</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H10">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J10">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.973063743554301</v>
+        <v>10.06220766666667</v>
       </c>
       <c r="N10">
-        <v>9.973063743554301</v>
+        <v>30.186623</v>
       </c>
       <c r="O10">
-        <v>0.09262515850194031</v>
+        <v>0.09111825304443795</v>
       </c>
       <c r="P10">
-        <v>0.09262515850194031</v>
+        <v>0.09111825304443795</v>
       </c>
       <c r="Q10">
-        <v>58.20364829951605</v>
+        <v>58.76317202684134</v>
       </c>
       <c r="R10">
-        <v>58.20364829951605</v>
+        <v>528.8685482415721</v>
       </c>
       <c r="S10">
-        <v>0.005657206906365482</v>
+        <v>0.004368829572096155</v>
       </c>
       <c r="T10">
-        <v>0.005657206906365482</v>
+        <v>0.004368829572096154</v>
       </c>
     </row>
   </sheetData>
